--- a/Java基礎総合課題/スケジュール_対話型電卓プログラム.xlsx
+++ b/Java基礎総合課題/スケジュール_対話型電卓プログラム.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>更新日：</t>
   </si>
@@ -265,6 +265,16 @@
     </rPh>
     <rPh sb="3" eb="5">
       <t>デンタク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>完了</t>
+  </si>
+  <si>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1092,6 +1102,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1114,16 +1134,6 @@
     <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1140,6 +1150,731 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>8334</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>96190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>220580</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>229540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1646A19-B761-42F2-81FE-822DCD958BCD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5973992" y="1058716"/>
+          <a:ext cx="212246" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>8333</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>96190</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>225593</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>229540</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29548C29-63F7-4020-95F8-CC307128CA18}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6435201" y="1539979"/>
+          <a:ext cx="217260" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>7739</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>96620</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>110226</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>232477</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{171BD9DF-FA30-450F-8723-274A504EE3CA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6665213" y="1781041"/>
+          <a:ext cx="102487" cy="135857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>120683</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>85599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>49926</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>232672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="正方形/長方形 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{40310C72-1B86-4D2F-BC4D-93FBE33608CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7239367" y="2251283"/>
+          <a:ext cx="159848" cy="147073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>59952</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>95188</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>157923</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>231044</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="正方形/長方形 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7D1ECFD3-93DC-4DCE-928E-490C8FF815FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7409241" y="2501504"/>
+          <a:ext cx="328577" cy="135856"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>182772</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>113091</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>232672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ECEBB534-8073-4294-AFE6-CB2A98A0B852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7762667" y="2732546"/>
+          <a:ext cx="160924" cy="147073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>10750</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>81875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>93469</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>228947</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="正方形/長方形 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9DE09507-5E72-4AC8-88FF-F2C373F1008A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8051855" y="2488191"/>
+          <a:ext cx="82719" cy="147072"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>108292</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85599</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>191011</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>232672</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="正方形/長方形 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3110DAA3-069C-4F96-BB92-4AD26B8EBC53}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8149397" y="2732546"/>
+          <a:ext cx="82719" cy="147073"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>205117</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>98483</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>162936</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>231833</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEFE63D2-A591-4C16-B2C5-EF80D9C13A20}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8246222" y="3226694"/>
+          <a:ext cx="419030" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>182916</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>94330</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>118964</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>230187</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="正方形/長方形 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E8CF81C-ECAF-41B1-95CB-933B8E16CDE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8685232" y="3463172"/>
+          <a:ext cx="166653" cy="135857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>120181</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>94759</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>120182</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>230616</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="12" name="正方形/長方形 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D22C18CC-B0BC-4E17-9C0D-6F9C0EDF4E2A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6777655" y="1538548"/>
+          <a:ext cx="230606" cy="135857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>7740</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>92896</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>110227</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>228753</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="正方形/長方形 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F118BE4F-8EAB-4057-AB38-81E97150BA30}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7126424" y="1777317"/>
+          <a:ext cx="102487" cy="135857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1444,8 +2179,8 @@
   </sheetPr>
   <dimension ref="A1:AR24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA15" sqref="AA15"/>
+    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -1476,11 +2211,11 @@
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="76">
+      <c r="I1" s="82">
         <v>42846</v>
       </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -1515,95 +2250,95 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:44" ht="18.75" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="78" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="88">
+      <c r="L2" s="76">
         <v>42846</v>
       </c>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="88">
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="76">
         <v>42849</v>
       </c>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="88">
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="76">
         <v>42850</v>
       </c>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="88">
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="76">
         <v>42851</v>
       </c>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="88">
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="76">
         <v>42852</v>
       </c>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="90"/>
-      <c r="AF2" s="88">
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="76">
         <v>42853</v>
       </c>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="90"/>
-      <c r="AJ2" s="88">
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="76">
         <v>42857</v>
       </c>
-      <c r="AK2" s="89"/>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="90"/>
-      <c r="AN2" s="91"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="92"/>
-      <c r="AQ2" s="93"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="80"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="81"/>
       <c r="AR2" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:44" ht="18.75" customHeight="1">
-      <c r="A3" s="79"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="83"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="89"/>
       <c r="L3" s="56">
         <v>1</v>
       </c>
@@ -1773,10 +2508,10 @@
         <v>42846</v>
       </c>
       <c r="J5" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="L5" s="5"/>
       <c r="M5" s="6"/>
@@ -1883,10 +2618,10 @@
         <v>42849</v>
       </c>
       <c r="J7" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="L7" s="5"/>
       <c r="M7" s="6"/>
@@ -1940,13 +2675,13 @@
         <v>42849</v>
       </c>
       <c r="I8" s="26">
-        <v>42849</v>
+        <v>42850</v>
       </c>
       <c r="J8" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="L8" s="5"/>
       <c r="M8" s="6"/>
@@ -2047,16 +2782,16 @@
       </c>
       <c r="G10" s="25"/>
       <c r="H10" s="26">
-        <v>42849</v>
+        <v>42850</v>
       </c>
       <c r="I10" s="26">
         <v>42850</v>
       </c>
       <c r="J10" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="L10" s="69"/>
       <c r="M10" s="70"/>
@@ -2110,13 +2845,13 @@
         <v>42850</v>
       </c>
       <c r="I11" s="26">
-        <v>42850</v>
+        <v>42851</v>
       </c>
       <c r="J11" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="L11" s="5"/>
       <c r="M11" s="6"/>
@@ -2170,13 +2905,13 @@
         <v>42850</v>
       </c>
       <c r="I12" s="26">
-        <v>42850</v>
+        <v>42851</v>
       </c>
       <c r="J12" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="L12" s="5"/>
       <c r="M12" s="6"/>
@@ -2287,10 +3022,10 @@
         <v>42851</v>
       </c>
       <c r="J14" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="L14" s="5"/>
       <c r="M14" s="6"/>
@@ -2347,10 +3082,10 @@
         <v>42851</v>
       </c>
       <c r="J15" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="L15" s="5"/>
       <c r="M15" s="6"/>
@@ -2882,14 +3617,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:E3"/>
@@ -2899,9 +3626,18 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="71" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Java基礎総合課題/スケジュール_対話型電卓プログラム.xlsx
+++ b/Java基礎総合課題/スケジュール_対話型電卓プログラム.xlsx
@@ -1102,16 +1102,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1134,6 +1124,16 @@
     <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1399,13 +1399,13 @@
       <xdr:col>20</xdr:col>
       <xdr:colOff>59952</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>95188</xdr:rowOff>
+      <xdr:rowOff>100631</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>157923</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>231044</xdr:rowOff>
+      <xdr:rowOff>236487</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1420,8 +1420,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7409241" y="2501504"/>
-          <a:ext cx="328577" cy="135856"/>
+          <a:off x="7402366" y="2495488"/>
+          <a:ext cx="326571" cy="135856"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1519,13 +1519,13 @@
       <xdr:col>23</xdr:col>
       <xdr:colOff>10750</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>81875</xdr:rowOff>
+      <xdr:rowOff>87318</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
       <xdr:colOff>93469</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>228947</xdr:rowOff>
+      <xdr:rowOff>234390</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1540,7 +1540,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8051855" y="2488191"/>
+          <a:off x="8038964" y="2482175"/>
           <a:ext cx="82719" cy="147072"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1759,13 +1759,13 @@
       <xdr:col>17</xdr:col>
       <xdr:colOff>120181</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>94759</xdr:rowOff>
+      <xdr:rowOff>100202</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>18</xdr:col>
       <xdr:colOff>120182</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>230616</xdr:rowOff>
+      <xdr:rowOff>236059</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1780,8 +1780,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6777655" y="1538548"/>
-          <a:ext cx="230606" cy="135857"/>
+          <a:off x="6776795" y="1537116"/>
+          <a:ext cx="228601" cy="135857"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1817,15 +1817,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>7740</xdr:colOff>
+      <xdr:colOff>13183</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>92896</xdr:rowOff>
+      <xdr:rowOff>98339</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>19</xdr:col>
-      <xdr:colOff>110227</xdr:colOff>
+      <xdr:colOff>115670</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>228753</xdr:rowOff>
+      <xdr:rowOff>234196</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1840,8 +1840,308 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7126424" y="1777317"/>
+          <a:off x="7126997" y="1774739"/>
           <a:ext cx="102487" cy="135857"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>175463</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>100264</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>65172</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>233614</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="正方形/長方形 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38F113F8-3D15-4A2A-8C1D-B9B06683B913}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9138989" y="4191001"/>
+          <a:ext cx="120315" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>82217</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>102699</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>185487</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>236049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="正方形/長方形 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB9F2FF4-5371-4457-8264-46653FEEA491}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9253431" y="4413442"/>
+          <a:ext cx="103270" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>212510</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>49217</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>234407</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F53ED404-6A81-4FAD-AD61-6A28E091585B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9383724" y="4651286"/>
+          <a:ext cx="65307" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>51587</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>98734</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>120768</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>229577</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="正方形/長方形 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55FC4EC8-1783-4627-8B30-7B2BFBD29A9A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9451401" y="4409477"/>
+          <a:ext cx="69181" cy="130843"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>136083</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>101906</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>208272</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>235256</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5DD56AB-25B1-4445-93FA-708FEBDE6513}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9539856" y="4626281"/>
+          <a:ext cx="72189" cy="133350"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2179,8 +2479,8 @@
   </sheetPr>
   <dimension ref="A1:AR24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F4" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -2211,11 +2511,11 @@
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="82">
+      <c r="I1" s="76">
         <v>42846</v>
       </c>
-      <c r="J1" s="83"/>
-      <c r="K1" s="83"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -2250,95 +2550,95 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:44" ht="18.75" customHeight="1">
-      <c r="A2" s="84" t="s">
+      <c r="A2" s="78" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="86" t="s">
+      <c r="B2" s="80" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="87"/>
-      <c r="D2" s="87"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="84" t="s">
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="78" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="92" t="s">
+      <c r="G2" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="92" t="s">
+      <c r="H2" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="92" t="s">
+      <c r="I2" s="86" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="93" t="s">
+      <c r="J2" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="86" t="s">
+      <c r="K2" s="80" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="76">
+      <c r="L2" s="88">
         <v>42846</v>
       </c>
-      <c r="M2" s="77"/>
-      <c r="N2" s="77"/>
-      <c r="O2" s="78"/>
-      <c r="P2" s="76">
+      <c r="M2" s="89"/>
+      <c r="N2" s="89"/>
+      <c r="O2" s="90"/>
+      <c r="P2" s="88">
         <v>42849</v>
       </c>
-      <c r="Q2" s="77"/>
-      <c r="R2" s="77"/>
-      <c r="S2" s="78"/>
-      <c r="T2" s="76">
+      <c r="Q2" s="89"/>
+      <c r="R2" s="89"/>
+      <c r="S2" s="90"/>
+      <c r="T2" s="88">
         <v>42850</v>
       </c>
-      <c r="U2" s="77"/>
-      <c r="V2" s="77"/>
-      <c r="W2" s="78"/>
-      <c r="X2" s="76">
+      <c r="U2" s="89"/>
+      <c r="V2" s="89"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="88">
         <v>42851</v>
       </c>
-      <c r="Y2" s="77"/>
-      <c r="Z2" s="77"/>
-      <c r="AA2" s="78"/>
-      <c r="AB2" s="76">
+      <c r="Y2" s="89"/>
+      <c r="Z2" s="89"/>
+      <c r="AA2" s="90"/>
+      <c r="AB2" s="88">
         <v>42852</v>
       </c>
-      <c r="AC2" s="77"/>
-      <c r="AD2" s="77"/>
-      <c r="AE2" s="78"/>
-      <c r="AF2" s="76">
+      <c r="AC2" s="89"/>
+      <c r="AD2" s="89"/>
+      <c r="AE2" s="90"/>
+      <c r="AF2" s="88">
         <v>42853</v>
       </c>
-      <c r="AG2" s="77"/>
-      <c r="AH2" s="77"/>
-      <c r="AI2" s="78"/>
-      <c r="AJ2" s="76">
+      <c r="AG2" s="89"/>
+      <c r="AH2" s="89"/>
+      <c r="AI2" s="90"/>
+      <c r="AJ2" s="88">
         <v>42857</v>
       </c>
-      <c r="AK2" s="77"/>
-      <c r="AL2" s="77"/>
-      <c r="AM2" s="78"/>
-      <c r="AN2" s="79"/>
-      <c r="AO2" s="80"/>
-      <c r="AP2" s="80"/>
-      <c r="AQ2" s="81"/>
+      <c r="AK2" s="89"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="91"/>
+      <c r="AO2" s="92"/>
+      <c r="AP2" s="92"/>
+      <c r="AQ2" s="93"/>
       <c r="AR2" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:44" ht="18.75" customHeight="1">
-      <c r="A3" s="85"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="90"/>
-      <c r="D3" s="90"/>
-      <c r="E3" s="91"/>
-      <c r="F3" s="85"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="85"/>
-      <c r="I3" s="85"/>
-      <c r="J3" s="85"/>
-      <c r="K3" s="89"/>
+      <c r="A3" s="79"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="85"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="79"/>
+      <c r="K3" s="83"/>
       <c r="L3" s="56">
         <v>1</v>
       </c>
@@ -3238,10 +3538,10 @@
         <v>42852</v>
       </c>
       <c r="J18" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="L18" s="5"/>
       <c r="M18" s="6"/>
@@ -3298,10 +3598,10 @@
         <v>42852</v>
       </c>
       <c r="J19" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="L19" s="5"/>
       <c r="M19" s="6"/>
@@ -3358,10 +3658,10 @@
         <v>42853</v>
       </c>
       <c r="J20" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="L20" s="5"/>
       <c r="M20" s="6"/>
@@ -3617,6 +3917,14 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:E3"/>
@@ -3626,14 +3934,6 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Java基礎総合課題/スケジュール_対話型電卓プログラム.xlsx
+++ b/Java基礎総合課題/スケジュール_対話型電卓プログラム.xlsx
@@ -1102,6 +1102,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="180" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="4" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1124,16 +1134,6 @@
     <xf numFmtId="9" fontId="6" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="5" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="177" fontId="6" fillId="3" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2174,6 +2174,66 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>9292</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>94123</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>223157</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>227473</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="正方形/長方形 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4EE71548-CB19-4F0B-963E-6E8F1281EF47}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10291646" y="5070355"/>
+          <a:ext cx="441535" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent6"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2479,8 +2539,8 @@
   </sheetPr>
   <dimension ref="A1:AR24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="C11" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.125" defaultRowHeight="15" customHeight="1"/>
@@ -2511,11 +2571,11 @@
       <c r="H1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="76">
+      <c r="I1" s="82">
         <v>42846</v>
       </c>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -2550,95 +2610,95 @@
       <c r="AQ1" s="3"/>
     </row>
     <row r="2" spans="1:44" ht="18.75" customHeight="1">
-      <c r="A2" s="78" t="s">
+      <c r="A2" s="84" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="86" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="78" t="s">
+      <c r="C2" s="87"/>
+      <c r="D2" s="87"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="84" t="s">
         <v>3</v>
       </c>
-      <c r="G2" s="86" t="s">
+      <c r="G2" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="86" t="s">
+      <c r="H2" s="92" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="86" t="s">
+      <c r="I2" s="92" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="87" t="s">
+      <c r="J2" s="93" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="80" t="s">
+      <c r="K2" s="86" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="88">
+      <c r="L2" s="76">
         <v>42846</v>
       </c>
-      <c r="M2" s="89"/>
-      <c r="N2" s="89"/>
-      <c r="O2" s="90"/>
-      <c r="P2" s="88">
+      <c r="M2" s="77"/>
+      <c r="N2" s="77"/>
+      <c r="O2" s="78"/>
+      <c r="P2" s="76">
         <v>42849</v>
       </c>
-      <c r="Q2" s="89"/>
-      <c r="R2" s="89"/>
-      <c r="S2" s="90"/>
-      <c r="T2" s="88">
+      <c r="Q2" s="77"/>
+      <c r="R2" s="77"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="76">
         <v>42850</v>
       </c>
-      <c r="U2" s="89"/>
-      <c r="V2" s="89"/>
-      <c r="W2" s="90"/>
-      <c r="X2" s="88">
+      <c r="U2" s="77"/>
+      <c r="V2" s="77"/>
+      <c r="W2" s="78"/>
+      <c r="X2" s="76">
         <v>42851</v>
       </c>
-      <c r="Y2" s="89"/>
-      <c r="Z2" s="89"/>
-      <c r="AA2" s="90"/>
-      <c r="AB2" s="88">
+      <c r="Y2" s="77"/>
+      <c r="Z2" s="77"/>
+      <c r="AA2" s="78"/>
+      <c r="AB2" s="76">
         <v>42852</v>
       </c>
-      <c r="AC2" s="89"/>
-      <c r="AD2" s="89"/>
-      <c r="AE2" s="90"/>
-      <c r="AF2" s="88">
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="77"/>
+      <c r="AE2" s="78"/>
+      <c r="AF2" s="76">
         <v>42853</v>
       </c>
-      <c r="AG2" s="89"/>
-      <c r="AH2" s="89"/>
-      <c r="AI2" s="90"/>
-      <c r="AJ2" s="88">
+      <c r="AG2" s="77"/>
+      <c r="AH2" s="77"/>
+      <c r="AI2" s="78"/>
+      <c r="AJ2" s="76">
         <v>42857</v>
       </c>
-      <c r="AK2" s="89"/>
-      <c r="AL2" s="89"/>
-      <c r="AM2" s="90"/>
-      <c r="AN2" s="91"/>
-      <c r="AO2" s="92"/>
-      <c r="AP2" s="92"/>
-      <c r="AQ2" s="93"/>
+      <c r="AK2" s="77"/>
+      <c r="AL2" s="77"/>
+      <c r="AM2" s="78"/>
+      <c r="AN2" s="79"/>
+      <c r="AO2" s="80"/>
+      <c r="AP2" s="80"/>
+      <c r="AQ2" s="81"/>
       <c r="AR2" s="33" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:44" ht="18.75" customHeight="1">
-      <c r="A3" s="79"/>
-      <c r="B3" s="83"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="85"/>
-      <c r="F3" s="79"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="79"/>
-      <c r="I3" s="79"/>
-      <c r="J3" s="79"/>
-      <c r="K3" s="83"/>
+      <c r="A3" s="85"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="90"/>
+      <c r="D3" s="90"/>
+      <c r="E3" s="91"/>
+      <c r="F3" s="85"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="85"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="89"/>
       <c r="L3" s="56">
         <v>1</v>
       </c>
@@ -3768,10 +3828,10 @@
         <v>42853</v>
       </c>
       <c r="J22" s="16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="L22" s="5"/>
       <c r="M22" s="6"/>
@@ -3917,14 +3977,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AJ2:AM2"/>
-    <mergeCell ref="AN2:AQ2"/>
-    <mergeCell ref="L2:O2"/>
-    <mergeCell ref="P2:S2"/>
-    <mergeCell ref="T2:W2"/>
-    <mergeCell ref="X2:AA2"/>
-    <mergeCell ref="AB2:AE2"/>
-    <mergeCell ref="AF2:AI2"/>
     <mergeCell ref="I1:K1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:E3"/>
@@ -3934,6 +3986,14 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
+    <mergeCell ref="AJ2:AM2"/>
+    <mergeCell ref="AN2:AQ2"/>
+    <mergeCell ref="L2:O2"/>
+    <mergeCell ref="P2:S2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="X2:AA2"/>
+    <mergeCell ref="AB2:AE2"/>
+    <mergeCell ref="AF2:AI2"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
